--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma1F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +961,7 @@
         <v>0.9570149235994443</v>
       </c>
       <c r="G13">
-        <v>0.9876954109514364</v>
+        <v>0.9876954109514365</v>
       </c>
       <c r="H13">
         <v>0.9999628204883477</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9921178531365165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.786037861580783</v>
+      </c>
+      <c r="D16">
+        <v>0.173322833693635</v>
+      </c>
+      <c r="E16">
+        <v>1.081775024705596</v>
+      </c>
+      <c r="F16">
+        <v>1.786037861580783</v>
+      </c>
+      <c r="G16">
+        <v>0.563061020639455</v>
+      </c>
+      <c r="H16">
+        <v>1.308073162744521</v>
+      </c>
+      <c r="I16">
+        <v>1.164614654127239</v>
+      </c>
+      <c r="J16">
+        <v>0.173322833693635</v>
+      </c>
+      <c r="K16">
+        <v>0.6275489291996155</v>
+      </c>
+      <c r="L16">
+        <v>1.206793395390199</v>
+      </c>
+      <c r="M16">
+        <v>1.012814092915205</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.786037861580783</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
@@ -964,7 +964,7 @@
         <v>0.9570149235994443</v>
       </c>
       <c r="G13">
-        <v>0.9876954109514365</v>
+        <v>0.9876954109514364</v>
       </c>
       <c r="H13">
         <v>0.9999628204883477</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6273600000000007</v>
+        <v>1.786037861580783</v>
       </c>
       <c r="D10">
-        <v>0.9162640000000025</v>
+        <v>0.173322833693635</v>
       </c>
       <c r="E10">
-        <v>0.9154199999999999</v>
+        <v>1.081775024705596</v>
       </c>
       <c r="F10">
-        <v>0.6273600000000007</v>
+        <v>1.786037861580783</v>
       </c>
       <c r="G10">
-        <v>0.2753599999999995</v>
+        <v>0.563061020639455</v>
       </c>
       <c r="H10">
-        <v>6.635987999999998</v>
+        <v>1.308073162744521</v>
       </c>
       <c r="I10">
-        <v>0.7287000000000002</v>
+        <v>1.164614654127239</v>
       </c>
       <c r="J10">
-        <v>0.9162640000000025</v>
+        <v>0.173322833693635</v>
       </c>
       <c r="K10">
-        <v>0.9158420000000012</v>
+        <v>0.6275489291996155</v>
       </c>
       <c r="L10">
-        <v>0.771601000000001</v>
+        <v>1.206793395390199</v>
       </c>
       <c r="M10">
-        <v>1.683182</v>
+        <v>1.012814092915205</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.8809594228982165</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.774818579320248</v>
       </c>
       <c r="E11">
-        <v>0.8401500000000005</v>
+        <v>1.170172044561466</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.8809594228982165</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.6469797574286253</v>
       </c>
       <c r="H11">
-        <v>11.06918750000001</v>
+        <v>2.202522071464121</v>
       </c>
       <c r="I11">
-        <v>0.5551249999999999</v>
+        <v>0.8768005193260758</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.774818579320248</v>
       </c>
       <c r="K11">
-        <v>0.4200750000000003</v>
+        <v>1.472495311940857</v>
       </c>
       <c r="L11">
-        <v>0.2100375000000001</v>
+        <v>1.176727367419537</v>
       </c>
       <c r="M11">
-        <v>2.077410416666668</v>
+        <v>1.258708732499792</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4172773949440007</v>
+        <v>0.8834527502252147</v>
       </c>
       <c r="D12">
-        <v>0.4363583858687999</v>
+        <v>1.777972587844262</v>
       </c>
       <c r="E12">
-        <v>0.9529896280063991</v>
+        <v>1.166176595195047</v>
       </c>
       <c r="F12">
-        <v>0.4172773949440007</v>
+        <v>0.8834527502252147</v>
       </c>
       <c r="G12">
-        <v>0.3918806996991993</v>
+        <v>0.6480607060098685</v>
       </c>
       <c r="H12">
-        <v>6.576525720985585</v>
+        <v>2.197378624686672</v>
       </c>
       <c r="I12">
-        <v>0.7702681496576013</v>
+        <v>0.8755835145138217</v>
       </c>
       <c r="J12">
-        <v>0.4363583858687999</v>
+        <v>1.777972587844262</v>
       </c>
       <c r="K12">
-        <v>0.6946740069375995</v>
+        <v>1.472074591519655</v>
       </c>
       <c r="L12">
-        <v>0.5559757009408002</v>
+        <v>1.177763670872435</v>
       </c>
       <c r="M12">
-        <v>1.590883329860264</v>
+        <v>1.258104129745814</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9570149235994443</v>
+        <v>0.8816746324342196</v>
       </c>
       <c r="D13">
-        <v>0.993871306100149</v>
+        <v>1.77395629426313</v>
       </c>
       <c r="E13">
-        <v>1.001327237070568</v>
+        <v>1.171375019151698</v>
       </c>
       <c r="F13">
-        <v>0.9570149235994443</v>
+        <v>0.8816746324342196</v>
       </c>
       <c r="G13">
-        <v>0.9876954109514364</v>
+        <v>0.6467825190747609</v>
       </c>
       <c r="H13">
-        <v>0.9999628204883477</v>
+        <v>2.193026571688935</v>
       </c>
       <c r="I13">
-        <v>0.9967495292894425</v>
+        <v>0.8774531897481906</v>
       </c>
       <c r="J13">
-        <v>0.993871306100149</v>
+        <v>1.77395629426313</v>
       </c>
       <c r="K13">
-        <v>0.9975992715853584</v>
+        <v>1.472665656707413</v>
       </c>
       <c r="L13">
-        <v>0.9773070975924014</v>
+        <v>1.177170144570817</v>
       </c>
       <c r="M13">
-        <v>0.989436871249898</v>
+        <v>1.257378037726822</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.356257695260471</v>
+        <v>0.6273600000000007</v>
       </c>
       <c r="D14">
-        <v>1.038113425374341</v>
+        <v>0.9162640000000025</v>
       </c>
       <c r="E14">
-        <v>0.9444140594041185</v>
+        <v>0.9154199999999999</v>
       </c>
       <c r="F14">
-        <v>1.356257695260471</v>
+        <v>0.6273600000000007</v>
       </c>
       <c r="G14">
-        <v>1.054998811005877</v>
+        <v>0.2753599999999995</v>
       </c>
       <c r="H14">
-        <v>1.174018064135435</v>
+        <v>6.635987999999998</v>
       </c>
       <c r="I14">
-        <v>0.8206458249724847</v>
+        <v>0.7287000000000002</v>
       </c>
       <c r="J14">
-        <v>1.038113425374341</v>
+        <v>0.9162640000000025</v>
       </c>
       <c r="K14">
-        <v>0.9912637423892297</v>
+        <v>0.9158420000000012</v>
       </c>
       <c r="L14">
-        <v>1.17376071882485</v>
+        <v>0.771601000000001</v>
       </c>
       <c r="M14">
-        <v>1.064741313358788</v>
+        <v>1.683182</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9917410647151376</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.355870958503672</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9104777307185172</v>
+        <v>0.8401500000000005</v>
       </c>
       <c r="F15">
-        <v>0.9917410647151376</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.11150276029007</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6554651084540842</v>
+        <v>11.06918750000001</v>
       </c>
       <c r="I15">
-        <v>0.9276494961376183</v>
+        <v>0.5551249999999999</v>
       </c>
       <c r="J15">
-        <v>1.355870958503672</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.133174344611095</v>
+        <v>0.4200750000000003</v>
       </c>
       <c r="L15">
-        <v>1.062457704663116</v>
+        <v>0.2100375000000001</v>
       </c>
       <c r="M15">
-        <v>0.9921178531365165</v>
+        <v>2.077410416666668</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.786037861580783</v>
+        <v>0.4172773949440007</v>
       </c>
       <c r="D16">
-        <v>0.173322833693635</v>
+        <v>0.4363583858687999</v>
       </c>
       <c r="E16">
-        <v>1.081775024705596</v>
+        <v>0.9529896280063991</v>
       </c>
       <c r="F16">
-        <v>1.786037861580783</v>
+        <v>0.4172773949440007</v>
       </c>
       <c r="G16">
-        <v>0.563061020639455</v>
+        <v>0.3918806996991993</v>
       </c>
       <c r="H16">
-        <v>1.308073162744521</v>
+        <v>6.576525720985585</v>
       </c>
       <c r="I16">
-        <v>1.164614654127239</v>
+        <v>0.7702681496576013</v>
       </c>
       <c r="J16">
-        <v>0.173322833693635</v>
+        <v>0.4363583858687999</v>
       </c>
       <c r="K16">
-        <v>0.6275489291996155</v>
+        <v>0.6946740069375995</v>
       </c>
       <c r="L16">
-        <v>1.206793395390199</v>
+        <v>0.5559757009408002</v>
       </c>
       <c r="M16">
-        <v>1.012814092915205</v>
+        <v>1.590883329860264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9570149235994443</v>
+      </c>
+      <c r="D17">
+        <v>0.993871306100149</v>
+      </c>
+      <c r="E17">
+        <v>1.001327237070568</v>
+      </c>
+      <c r="F17">
+        <v>0.9570149235994443</v>
+      </c>
+      <c r="G17">
+        <v>0.9876954109514365</v>
+      </c>
+      <c r="H17">
+        <v>0.9999628204883477</v>
+      </c>
+      <c r="I17">
+        <v>0.9967495292894425</v>
+      </c>
+      <c r="J17">
+        <v>0.993871306100149</v>
+      </c>
+      <c r="K17">
+        <v>0.9975992715853584</v>
+      </c>
+      <c r="L17">
+        <v>0.9773070975924014</v>
+      </c>
+      <c r="M17">
+        <v>0.989436871249898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.356257695260471</v>
+      </c>
+      <c r="D18">
+        <v>1.038113425374341</v>
+      </c>
+      <c r="E18">
+        <v>0.9444140594041185</v>
+      </c>
+      <c r="F18">
+        <v>1.356257695260471</v>
+      </c>
+      <c r="G18">
+        <v>1.054998811005877</v>
+      </c>
+      <c r="H18">
+        <v>1.174018064135435</v>
+      </c>
+      <c r="I18">
+        <v>0.8206458249724847</v>
+      </c>
+      <c r="J18">
+        <v>1.038113425374341</v>
+      </c>
+      <c r="K18">
+        <v>0.9912637423892297</v>
+      </c>
+      <c r="L18">
+        <v>1.17376071882485</v>
+      </c>
+      <c r="M18">
+        <v>1.064741313358788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9917410647151376</v>
+      </c>
+      <c r="D19">
+        <v>1.355870958503672</v>
+      </c>
+      <c r="E19">
+        <v>0.9104777307185172</v>
+      </c>
+      <c r="F19">
+        <v>0.9917410647151376</v>
+      </c>
+      <c r="G19">
+        <v>1.11150276029007</v>
+      </c>
+      <c r="H19">
+        <v>0.6554651084540842</v>
+      </c>
+      <c r="I19">
+        <v>0.9276494961376183</v>
+      </c>
+      <c r="J19">
+        <v>1.355870958503672</v>
+      </c>
+      <c r="K19">
+        <v>1.133174344611095</v>
+      </c>
+      <c r="L19">
+        <v>1.062457704663116</v>
+      </c>
+      <c r="M19">
+        <v>0.9921178531365165</v>
       </c>
     </row>
   </sheetData>
